--- a/data/Subset 1/Video Mosaic Grade 3 Shirts and Pants 1.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 3 Shirts and Pants 1.xlsx
@@ -477,7 +477,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -523,7 +523,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,7 +569,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -592,7 +592,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -615,7 +615,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -638,7 +638,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -707,7 +707,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -753,7 +753,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2110,7 +2110,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2179,7 +2179,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2202,7 +2202,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2340,7 +2340,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2386,7 +2386,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2432,7 +2432,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2570,7 +2570,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2593,7 +2593,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2662,7 +2662,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2685,7 +2685,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2731,7 +2731,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2777,7 +2777,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3651,7 +3651,7 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3674,7 +3674,7 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3720,7 +3720,7 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -3743,7 +3743,7 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -3789,7 +3789,7 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3812,7 +3812,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
